--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>2/14,15/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>3/8-10/2023</t>
   </si>
 </sst>
 </file>
@@ -3020,10 +3026,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3099,9 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -3191,7 +3199,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3201,7 +3209,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4583,15 +4591,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -5541,10 +5553,10 @@
   </sheetPr>
   <dimension ref="A2:K105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,7 +5734,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.25</v>
+        <v>37.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6520,8 +6532,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="41"/>
       <c r="E46" s="10"/>
@@ -6530,10 +6546,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="41">
+        <v>3</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="K46" s="21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>

--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>3/8-10/2023</t>
+  </si>
+  <si>
+    <t>4/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -693,17 +696,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -713,6 +713,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,7 +1246,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1289,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1413,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1479,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1542,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1640,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1699,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1764,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1807,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1882,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2068,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2134,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2192,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2258,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2314,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2389,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2432,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2498,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2554,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,14 +3062,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3078,14 +3081,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3099,16 +3102,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3141,18 +3144,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5508,17 +5511,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5556,7 +5559,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,14 +5589,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5605,14 +5608,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5626,14 +5629,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5666,18 +5669,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5724,7 +5727,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>121.79799999999999</v>
+        <v>119.79799999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -6556,10 +6559,16 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="41">
+        <v>2</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="21"/>
       <c r="G47" s="14" t="str">
@@ -6569,7 +6578,9 @@
       <c r="H47" s="41"/>
       <c r="I47" s="10"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>

--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>4/27,28/2023</t>
+  </si>
+  <si>
+    <t>6/1,5/2023</t>
+  </si>
+  <si>
+    <t>5/18-20/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>06/10,17,24/2023</t>
+  </si>
+  <si>
+    <t>05/27, 06/03/2023</t>
   </si>
 </sst>
 </file>
@@ -696,14 +714,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -713,9 +734,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,7 +1264,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1307,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1371,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1431,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1497,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1560,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1658,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1717,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1782,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1825,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1900,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2086,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2152,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2210,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2276,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2332,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2407,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2450,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2516,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2572,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3049,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -3062,14 +3080,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3081,14 +3099,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3102,16 +3120,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3144,18 +3162,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5511,17 +5529,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5557,9 +5575,9 @@
   <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,14 +5607,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5608,14 +5626,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5629,14 +5647,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5669,18 +5687,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5727,7 +5745,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>119.79799999999999</v>
+        <v>115.79799999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5737,7 +5755,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.25</v>
+        <v>30.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6583,8 +6601,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="41"/>
       <c r="E48" s="10"/>
@@ -6593,14 +6615,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="41">
+        <v>2</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="K48" s="21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="41"/>
       <c r="E49" s="10"/>
@@ -6609,16 +6637,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="41"/>
+      <c r="H49" s="41">
+        <v>3</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="K49" s="21" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="C50" s="14"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="41">
+        <v>1</v>
+      </c>
       <c r="E50" s="10"/>
       <c r="F50" s="21"/>
       <c r="G50" s="14" t="str">
@@ -6628,13 +6664,21 @@
       <c r="H50" s="41"/>
       <c r="I50" s="10"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="51">
+        <v>45071</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C51" s="14"/>
-      <c r="D51" s="41"/>
+      <c r="D51" s="41">
+        <v>3</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="21"/>
       <c r="G51" s="14" t="str">
@@ -6644,11 +6688,15 @@
       <c r="H51" s="41"/>
       <c r="I51" s="10"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="51" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="21"/>
+      <c r="B52" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C52" s="14"/>
       <c r="D52" s="41"/>
       <c r="E52" s="10"/>
@@ -6657,10 +6705,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="41"/>
+      <c r="H52" s="41">
+        <v>2</v>
+      </c>
       <c r="I52" s="10"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>

--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>05/27, 06/03/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>06/12,21,22,23,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3053,7 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58"/>
       <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
@@ -5575,9 +5581,9 @@
   <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="3690" topLeftCell="A41" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,7 +5751,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>115.79799999999999</v>
+        <v>109.79799999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -6716,9 +6722,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
-      <c r="B53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="41"/>
+      <c r="D53" s="41">
+        <v>6</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="21"/>
       <c r="G53" s="14" t="str">
@@ -6728,7 +6738,9 @@
       <c r="H53" s="41"/>
       <c r="I53" s="10"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>

--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -720,17 +720,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -740,6 +737,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1788,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1831,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2158,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2282,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2338,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2413,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2456,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2522,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2704,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K105" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K106" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3086,14 +3086,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3105,14 +3105,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3126,16 +3126,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3168,18 +3168,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5535,17 +5535,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5578,12 +5578,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K105"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A41" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5613,14 +5613,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5632,14 +5632,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5653,14 +5653,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5693,18 +5693,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5761,7 +5761,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.25</v>
+        <v>28.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6744,7 +6744,9 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="41"/>
       <c r="E54" s="10"/>
@@ -6753,14 +6755,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="41">
+        <v>1</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="51">
+        <v>45104</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="41"/>
       <c r="E55" s="10"/>
@@ -6769,10 +6779,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="41"/>
+      <c r="H55" s="41">
+        <v>1</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="51">
+        <v>45115</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
@@ -7559,20 +7573,36 @@
       <c r="K104" s="21"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="41"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="45"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="41"/>
       <c r="I105" s="10"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="16"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="45"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/ESTOLE, JOCELYN.xlsx
+++ b/NEW HR/ESTOLE, JOCELYN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -720,14 +720,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -737,9 +740,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1788,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1831,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2158,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2282,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2338,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2413,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2456,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2522,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,10 +3053,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58"/>
-      <selection activeCell="J2" sqref="J2:K2"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,14 +3086,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3105,14 +3105,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3126,16 +3126,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3168,18 +3168,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3236,7 +3236,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14">
@@ -4599,7 +4599,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="14">
@@ -4619,7 +4619,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="14">
@@ -4638,15 +4638,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45046</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4654,15 +4658,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45077</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -4670,15 +4678,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45107</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4686,15 +4698,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45138</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -4702,7 +4718,9 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45169</v>
+      </c>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
       <c r="D83" s="41"/>
@@ -4718,7 +4736,9 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45199</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="41"/>
@@ -4734,7 +4754,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45230</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -4750,7 +4772,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45260</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -4766,7 +4790,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="42">
+        <v>45291</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
@@ -5535,17 +5561,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5580,7 +5606,7 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A41" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
@@ -5613,14 +5639,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5632,14 +5658,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5653,14 +5679,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5693,18 +5719,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
